--- a/simulations/scene/inputs/Scenarios_24-11-06.xlsx
+++ b/simulations/scene/inputs/Scenarios_24-11-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp29308\home\torisuten\package\Wheat-BRIDGES\simulations\single_plant\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIGERA~1\AppData\Local\Temp\scp31752\home\torisuten\package\Wheat-BRIDGES\simulations\scene\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B715AD-764F-44B0-9D36-6C5D0976A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7630A95-E4CA-43A5-98AF-D47D6A7D6AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2874,10 +2874,10 @@
   <dimension ref="A1:BZ229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U233" sqref="U233"/>
+      <selection pane="bottomRight" activeCell="T130" sqref="T130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36880,6 +36880,348 @@
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="G211:P211 BC211 V211:X211 R211:T212">
+    <cfRule type="colorScale" priority="3274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G221:P221">
+    <cfRule type="colorScale" priority="3290">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R126:T126">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R133:T133">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R205:T205">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R206:T206">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R213:T213">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R214:T214">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R215:T216">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R217:T217">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R218:T218">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R219:T219">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R220:T220">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R226:T226">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R229:T229">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V221:X221 BC221 R221:T221">
+    <cfRule type="colorScale" priority="3288">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W207">
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -36925,17 +37267,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W209">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36991,6 +37333,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X208">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -37001,18 +37353,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X209">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -37023,29 +37375,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X210">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37145,17 +37487,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AD6 BC6 G6:P6 V6:X6 R6:T6">
+    <cfRule type="colorScale" priority="2865">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2864">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2865">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37277,17 +37619,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AD12 BC12 G12:P12 V12:X12 R12:T12">
+    <cfRule type="colorScale" priority="2877">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2876">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2877">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37497,17 +37839,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA24:AD24 BC24 G24:P24 V24:X24 R24:T24">
+    <cfRule type="colorScale" priority="2899">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2898">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2899">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37585,17 +37927,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AD28 BC28 G28:P28 V28:X28 R28:T28">
+    <cfRule type="colorScale" priority="2907">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2906">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2907">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37651,6 +37993,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AD31 BC31 G31:P31 V31:X31 R31:T31">
+    <cfRule type="colorScale" priority="2913">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2912">
       <colorScale>
         <cfvo type="min"/>
@@ -37661,29 +38013,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2913">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA32:AD32 BC32 G32:P32 V32:X32 R32:T32">
+    <cfRule type="colorScale" priority="2915">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2914">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2915">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -37937,6 +38279,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AD44 BC44 G44:P44 V44:X44 R44:T44">
+    <cfRule type="colorScale" priority="2939">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2938">
       <colorScale>
         <cfvo type="min"/>
@@ -37947,18 +38299,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2939">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA45:AD45 BC45 G45:P45 V45:X45 R45:T45">
+    <cfRule type="colorScale" priority="2941">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2940">
       <colorScale>
         <cfvo type="min"/>
@@ -37969,29 +38321,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2941">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA46:AD46 BC46 G46:P46 V46:X46 R46:T46">
+    <cfRule type="colorScale" priority="2943">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2942">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2943">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38025,17 +38367,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AD48 BC48 G48:P48 V48:X48 R48:T48">
+    <cfRule type="colorScale" priority="2947">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2946">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2947">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38069,6 +38411,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA50:AD50 BC50 G50:P50 V50:X50 R50:T50">
+    <cfRule type="colorScale" priority="2951">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2950">
       <colorScale>
         <cfvo type="min"/>
@@ -38079,18 +38431,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2951">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:AD51 BC51 G51:P51 V51:X51 R51:T51">
+    <cfRule type="colorScale" priority="2953">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2952">
       <colorScale>
         <cfvo type="min"/>
@@ -38101,18 +38453,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2953">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA52:AD52 BC52 G52:P52 V52:X52 R52:T52">
+    <cfRule type="colorScale" priority="2955">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2954">
       <colorScale>
         <cfvo type="min"/>
@@ -38123,18 +38475,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2955">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA53:AD53 BC53 G53:P53 V53:X53 R53:T53">
+    <cfRule type="colorScale" priority="2957">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2956">
       <colorScale>
         <cfvo type="min"/>
@@ -38145,18 +38497,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2957">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54:AD54 BC54 G54:P54 V54:X54 R54:T54">
+    <cfRule type="colorScale" priority="2959">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2958">
       <colorScale>
         <cfvo type="min"/>
@@ -38167,18 +38519,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2959">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA55:AD55 BC55 G55:P55 V55:X55 R55:T55">
+    <cfRule type="colorScale" priority="2961">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2960">
       <colorScale>
         <cfvo type="min"/>
@@ -38189,18 +38541,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2961">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA56:AD56 BC56 G56:P56 V56:X56 R56:T56">
+    <cfRule type="colorScale" priority="2963">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2962">
       <colorScale>
         <cfvo type="min"/>
@@ -38211,29 +38563,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2963">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AD57 BC57 G57:P57 V57:X57 R57:T57">
+    <cfRule type="colorScale" priority="2965">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2964">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2965">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38267,6 +38609,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA59:AD59 BC59 G59:P59 V59:X59 R59:T59">
+    <cfRule type="colorScale" priority="2969">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2968">
       <colorScale>
         <cfvo type="min"/>
@@ -38277,18 +38629,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2969">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA60:AD60 BC60 G60:P60 V60:X60 R60:T60">
+    <cfRule type="colorScale" priority="2971">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2970">
       <colorScale>
         <cfvo type="min"/>
@@ -38299,18 +38651,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2971">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA61:AD61 BC61 G61:P61 V61:X61 R61:T61">
+    <cfRule type="colorScale" priority="2973">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2972">
       <colorScale>
         <cfvo type="min"/>
@@ -38321,18 +38673,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2973">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA62:AD62 BC62 G62:P62 V62:X62 R62:T62">
+    <cfRule type="colorScale" priority="2975">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2974">
       <colorScale>
         <cfvo type="min"/>
@@ -38343,18 +38695,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2975">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA63:AD63 BC63 G63:P63 V63:X63 R63:T63">
+    <cfRule type="colorScale" priority="2977">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2976">
       <colorScale>
         <cfvo type="min"/>
@@ -38365,18 +38717,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2977">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA64:AD64 BC64 G64:P64 V64:X64 R64:T64">
+    <cfRule type="colorScale" priority="2979">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2978">
       <colorScale>
         <cfvo type="min"/>
@@ -38387,29 +38739,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2979">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA65:AD65 BC65 G65:P65 V65:X65 R65:T65">
+    <cfRule type="colorScale" priority="2981">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2980">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2981">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38553,6 +38895,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA72:AD72 BC72 G72:P72 V72:X72 R72:T72">
+    <cfRule type="colorScale" priority="2995">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2994">
       <colorScale>
         <cfvo type="min"/>
@@ -38563,29 +38915,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2995">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA73:AD73 BC73 G73:P73 V73:X73 R73:T73">
+    <cfRule type="colorScale" priority="2997">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2996">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2997">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38619,6 +38961,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA75:AD75 BC75 G75:P75 V75:X75 R75:T75">
+    <cfRule type="colorScale" priority="3001">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3000">
       <colorScale>
         <cfvo type="min"/>
@@ -38629,18 +38981,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3001">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA76:AD76 BC76 G76:P76 V76:X76 R76:T76">
+    <cfRule type="colorScale" priority="3003">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3002">
       <colorScale>
         <cfvo type="min"/>
@@ -38651,29 +39003,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3003">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA77:AD77 BC77 G77:P77 V77:X77 R77:T77">
+    <cfRule type="colorScale" priority="3005">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3004">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3005">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38817,6 +39159,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA84:AD84 BC84 G84:P84 V84:X84 R84:T84">
+    <cfRule type="colorScale" priority="3019">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3018">
       <colorScale>
         <cfvo type="min"/>
@@ -38827,29 +39179,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3019">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA85:AD85 BC85 G85:P85 V85:X85 R85:T85">
+    <cfRule type="colorScale" priority="3021">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3020">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3021">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38905,6 +39247,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA88:AD88 BC88 G88:P88 V88:X88 R88:T88">
+    <cfRule type="colorScale" priority="3027">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3026">
       <colorScale>
         <cfvo type="min"/>
@@ -38915,29 +39267,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3027">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA89:AD89 BC89 G89:P89 V89:X89 R89:T89">
+    <cfRule type="colorScale" priority="3029">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3028">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3029">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -38971,17 +39313,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA91:AD91 BC91 G91:P91 V91:X91 R91:T91">
+    <cfRule type="colorScale" priority="3033">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3032">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3033">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39015,17 +39357,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA93:AD93 BC93 G93:P93 V93:X93 R93:T93">
+    <cfRule type="colorScale" priority="3037">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3036">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3037">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39081,6 +39423,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA96:AD96 BC96 G96:P96 V96:X96 R96:T96">
+    <cfRule type="colorScale" priority="3043">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3042">
       <colorScale>
         <cfvo type="min"/>
@@ -39091,18 +39443,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3043">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA97:AD97 BC97 G97:P97 V97:X97 R97:T97">
+    <cfRule type="colorScale" priority="3045">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3044">
       <colorScale>
         <cfvo type="min"/>
@@ -39113,18 +39465,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3045">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA98:AD98 BC98 G98:P98 V98:X98 R98:T98">
+    <cfRule type="colorScale" priority="3047">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3046">
       <colorScale>
         <cfvo type="min"/>
@@ -39135,29 +39487,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3047">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA99:AD99 BC99 G99:P99 V99:X99 R99:T99">
+    <cfRule type="colorScale" priority="3049">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3048">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3049">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39477,6 +39819,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA114:AD114 BC114 G114:P114 V114:X114 R114:T114">
+    <cfRule type="colorScale" priority="3079">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3078">
       <colorScale>
         <cfvo type="min"/>
@@ -39487,29 +39839,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3079">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA115:AD115 BC115 G115:P115 V115:X115 R115:T115">
+    <cfRule type="colorScale" priority="3081">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3080">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3081">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39719,17 +40061,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA125:AD125 BC125 G125:P125 V125:X125 R125:T125">
+    <cfRule type="colorScale" priority="3101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -39785,6 +40127,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA128:AD128 BC128 G128:P128 V128:X128 R128:T128">
+    <cfRule type="colorScale" priority="3107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3106">
       <colorScale>
         <cfvo type="min"/>
@@ -39795,18 +40147,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA129:AD129 BC129 G129:P129 V129:X129 R129:T129">
+    <cfRule type="colorScale" priority="3109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3108">
       <colorScale>
         <cfvo type="min"/>
@@ -39817,18 +40169,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA130:AD130 BC130 G130:P130 V130:X130 R130:T130">
+    <cfRule type="colorScale" priority="3111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3110">
       <colorScale>
         <cfvo type="min"/>
@@ -39839,18 +40191,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA131:AD131 BC131 G131:P131 V131:X131 R131:T131">
+    <cfRule type="colorScale" priority="3113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3112">
       <colorScale>
         <cfvo type="min"/>
@@ -39861,18 +40213,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA132:AD132 BC132 G132:P132 V132:X132 R132:T132">
+    <cfRule type="colorScale" priority="3115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3114">
       <colorScale>
         <cfvo type="min"/>
@@ -39883,18 +40235,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA133:AD133 BC133 G133:P133 V133:X133">
+    <cfRule type="colorScale" priority="3117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3116">
       <colorScale>
         <cfvo type="min"/>
@@ -39905,29 +40257,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA134:AD134 BC134 G134:P134 V134:X134 R134:T134">
+    <cfRule type="colorScale" priority="3119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40159,6 +40501,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA145:AD145 BC145 G145:P145 V145:X145 R145:T145">
+    <cfRule type="colorScale" priority="3141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3140">
       <colorScale>
         <cfvo type="min"/>
@@ -40169,29 +40521,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA146:AD146 BC146 G146:P146 V146:X146 R146:T146">
+    <cfRule type="colorScale" priority="3143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40313,17 +40655,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA152:AD152 BC152 G152:P152 V152:X152 R152:T152">
+    <cfRule type="colorScale" priority="3155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40401,6 +40743,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA156:AD156 BC156 G156:P156 V156:X156 R156:T156">
+    <cfRule type="colorScale" priority="3163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3162">
       <colorScale>
         <cfvo type="min"/>
@@ -40411,18 +40763,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA157:AD157 BC157 G157:P157 V157:X157 R157:T157">
+    <cfRule type="colorScale" priority="3165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3164">
       <colorScale>
         <cfvo type="min"/>
@@ -40433,18 +40785,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA158:AD158 BC158 G158:P158 V158:X158 R158:T158">
+    <cfRule type="colorScale" priority="3167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3166">
       <colorScale>
         <cfvo type="min"/>
@@ -40455,18 +40807,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA159:AD159 BC159 G159:P159 V159:X159 R159:T159">
+    <cfRule type="colorScale" priority="3169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3168">
       <colorScale>
         <cfvo type="min"/>
@@ -40477,18 +40829,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA160:AD160 BC160 G160:P160 V160:X160 R160:T160">
+    <cfRule type="colorScale" priority="3171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3170">
       <colorScale>
         <cfvo type="min"/>
@@ -40499,18 +40851,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA161:AD161 BC161 G161:P161 V161:X161 R161:T161">
+    <cfRule type="colorScale" priority="3173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3172">
       <colorScale>
         <cfvo type="min"/>
@@ -40521,29 +40873,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA162:AD162 BC162 G162:P162 V162:X162 R162:T162">
+    <cfRule type="colorScale" priority="3175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40687,6 +41029,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA169:AD169 BC169 G169:P169 V169:X169 R169:T169">
+    <cfRule type="colorScale" priority="3189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3188">
       <colorScale>
         <cfvo type="min"/>
@@ -40697,18 +41049,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA170:AD170 BC170 G170:P170 V170:X170 R170:T170">
+    <cfRule type="colorScale" priority="3191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3190">
       <colorScale>
         <cfvo type="min"/>
@@ -40719,29 +41071,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA171:AD171 BC171 G171:P171 V171:X171 R171:T171">
+    <cfRule type="colorScale" priority="3193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40775,6 +41117,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA173:AD173 BC173 G173:P173 V173:X173 R173:T173">
+    <cfRule type="colorScale" priority="3197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3196">
       <colorScale>
         <cfvo type="min"/>
@@ -40785,29 +41137,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA174:AD174 BC174 G174:P174 V174:X174 R174:T174">
+    <cfRule type="colorScale" priority="3199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40841,6 +41183,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA176:AD176 BC176 G176:P176 V176:X176 R176:T176">
+    <cfRule type="colorScale" priority="3203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3202">
       <colorScale>
         <cfvo type="min"/>
@@ -40851,18 +41203,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA177:AD177 BC177 G177:P177 V177:X177 R177:T177">
+    <cfRule type="colorScale" priority="3205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3204">
       <colorScale>
         <cfvo type="min"/>
@@ -40873,18 +41225,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA178:AD178 BC178 G178:P178 V178:X178 R178:T178">
+    <cfRule type="colorScale" priority="3207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3206">
       <colorScale>
         <cfvo type="min"/>
@@ -40895,29 +41247,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA179:AD179 BC179 G179:P179 V179:X179 R179:T179">
+    <cfRule type="colorScale" priority="3209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40973,6 +41315,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA182:AD182 BC182 G182:P182 V182:X182 R182:T182">
+    <cfRule type="colorScale" priority="3215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3214">
       <colorScale>
         <cfvo type="min"/>
@@ -40983,18 +41335,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA183:AD183 BC183 G183:P183 V183:X183 R183:T183">
+    <cfRule type="colorScale" priority="3217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3216">
       <colorScale>
         <cfvo type="min"/>
@@ -41005,18 +41357,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA184:AD184 BC184 G184:P184 V184:X184 R184:T184">
+    <cfRule type="colorScale" priority="3219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3218">
       <colorScale>
         <cfvo type="min"/>
@@ -41027,18 +41379,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA185:AD185 BC185 G185:P185 V185:X185 R185:T185">
+    <cfRule type="colorScale" priority="3221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3220">
       <colorScale>
         <cfvo type="min"/>
@@ -41049,18 +41401,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA186:AD186 BC186 G186:P186 V186:X186 R186:T186">
+    <cfRule type="colorScale" priority="3223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3222">
       <colorScale>
         <cfvo type="min"/>
@@ -41071,18 +41423,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA187:AD187 BC187 G187:P187 V187:X187 R187:T187">
+    <cfRule type="colorScale" priority="3225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3224">
       <colorScale>
         <cfvo type="min"/>
@@ -41093,18 +41445,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA188:AD188 BC188 G188:P188 V188:X188 R188:T188">
+    <cfRule type="colorScale" priority="3227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3226">
       <colorScale>
         <cfvo type="min"/>
@@ -41115,18 +41467,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA189:AD189 BC189 G189:P189 V189:X189 R189:T189">
+    <cfRule type="colorScale" priority="3229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3228">
       <colorScale>
         <cfvo type="min"/>
@@ -41137,18 +41489,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA190:AD190 BC190 G190:P190 V190:X190 R190:T190">
+    <cfRule type="colorScale" priority="3231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3230">
       <colorScale>
         <cfvo type="min"/>
@@ -41159,18 +41511,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA191:AD191 BC191 G191:P191 V191:X191 R191:T191">
+    <cfRule type="colorScale" priority="3233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3232">
       <colorScale>
         <cfvo type="min"/>
@@ -41181,29 +41533,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA192:AD192 BC192 G192:P192 V192:X192 R192:T192">
+    <cfRule type="colorScale" priority="3235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3234">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41325,17 +41667,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA198:AD198 BC198 G198:P198 V198:X198 R198:T198">
+    <cfRule type="colorScale" priority="3247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3246">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3247">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41435,6 +41777,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA203:AD203 BC203 G203:P203 V203:X203 R203:T203">
+    <cfRule type="colorScale" priority="3257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3256">
       <colorScale>
         <cfvo type="min"/>
@@ -41445,29 +41797,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3257">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA204:AD204 BC204 G204:P204 V204:X204 R204:T204">
+    <cfRule type="colorScale" priority="3259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3258">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41545,6 +41887,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA208:AD208 BC208 G208:P208 V208 R208:T208">
+    <cfRule type="colorScale" priority="3269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3268">
       <colorScale>
         <cfvo type="min"/>
@@ -41555,29 +41907,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA209:AD209 BC209 G209:P209 V209 R209:T209">
+    <cfRule type="colorScale" priority="3271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3270">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41610,28 +41952,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:P211 BC211 V211:X211 R211:T212">
-    <cfRule type="colorScale" priority="3274">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA211:AD211">
     <cfRule type="colorScale" priority="3276">
       <colorScale>
@@ -41677,6 +41997,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA213:AD213 BC213 G213:P213 V213:X213">
+    <cfRule type="colorScale" priority="3281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3280">
       <colorScale>
         <cfvo type="min"/>
@@ -41687,18 +42017,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3281">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA214:AD216 BC214:BC216 G214:P216 V214:X216">
+    <cfRule type="colorScale" priority="3283">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3282">
       <colorScale>
         <cfvo type="min"/>
@@ -41709,18 +42039,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3283">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA217:AD217 BC217 G217:P217 V217:X217">
+    <cfRule type="colorScale" priority="3285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3284">
       <colorScale>
         <cfvo type="min"/>
@@ -41731,18 +42061,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA218:AD220 BC218:BC220 G218:P219 V218:X220 H220:P220">
+    <cfRule type="colorScale" priority="3287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3286">
       <colorScale>
         <cfvo type="min"/>
@@ -41753,62 +42083,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V221:X221 BC221 R221:T221">
-    <cfRule type="colorScale" priority="3288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3289">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G221:P221">
-    <cfRule type="colorScale" priority="3290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3291">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA221:AD221">
+    <cfRule type="colorScale" priority="3295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3294">
       <colorScale>
         <cfvo type="min"/>
@@ -41819,18 +42105,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3295">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE23">
+    <cfRule type="colorScale" priority="1117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1116">
       <colorScale>
         <cfvo type="min"/>
@@ -41841,18 +42127,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE222:AE226">
+    <cfRule type="colorScale" priority="1517">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1516">
       <colorScale>
         <cfvo type="min"/>
@@ -41863,29 +42149,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1517">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE227:AE228">
+    <cfRule type="colorScale" priority="1519">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1518">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1519">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -41985,6 +42261,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE6:AK6">
+    <cfRule type="colorScale" priority="1085">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1084">
       <colorScale>
         <cfvo type="min"/>
@@ -41995,29 +42281,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1085">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE7:AK7">
+    <cfRule type="colorScale" priority="1087">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1086">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1087">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42051,6 +42327,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AK9">
+    <cfRule type="colorScale" priority="1091">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1090">
       <colorScale>
         <cfvo type="min"/>
@@ -42061,29 +42347,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1091">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AK10">
+    <cfRule type="colorScale" priority="1093">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1092">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1093">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42161,17 +42437,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14:AK14">
+    <cfRule type="colorScale" priority="1101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42205,6 +42481,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE16:AK16">
+    <cfRule type="colorScale" priority="1105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1104">
       <colorScale>
         <cfvo type="min"/>
@@ -42215,18 +42501,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AK17">
+    <cfRule type="colorScale" priority="1107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1106">
       <colorScale>
         <cfvo type="min"/>
@@ -42237,29 +42523,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:AK18">
+    <cfRule type="colorScale" priority="1109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42557,17 +42833,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34:AK34">
+    <cfRule type="colorScale" priority="1139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42689,17 +42965,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE40:AK40">
+    <cfRule type="colorScale" priority="1151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42733,17 +43009,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AK42">
+    <cfRule type="colorScale" priority="1155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43195,17 +43471,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE63:AK63">
+    <cfRule type="colorScale" priority="1197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43349,17 +43625,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE70:AK70">
+    <cfRule type="colorScale" priority="1211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43525,6 +43801,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE78:AK78">
+    <cfRule type="colorScale" priority="1227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1226">
       <colorScale>
         <cfvo type="min"/>
@@ -43535,18 +43821,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE79:AK79">
+    <cfRule type="colorScale" priority="1229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1228">
       <colorScale>
         <cfvo type="min"/>
@@ -43557,18 +43843,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE80:AK80">
+    <cfRule type="colorScale" priority="1231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1230">
       <colorScale>
         <cfvo type="min"/>
@@ -43579,29 +43865,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE81:AK81">
+    <cfRule type="colorScale" priority="1233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1233">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43767,17 +44043,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE89:AK89">
+    <cfRule type="colorScale" priority="1249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1248">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43899,17 +44175,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE95:AK95">
+    <cfRule type="colorScale" priority="1261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1260">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43965,6 +44241,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE98:AK98">
+    <cfRule type="colorScale" priority="1267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1266">
       <colorScale>
         <cfvo type="min"/>
@@ -43975,18 +44261,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE99:AK99">
+    <cfRule type="colorScale" priority="1269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1268">
       <colorScale>
         <cfvo type="min"/>
@@ -43997,29 +44283,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE100:AK100">
+    <cfRule type="colorScale" priority="1271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1270">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1271">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44097,17 +44373,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE104:AK104">
+    <cfRule type="colorScale" priority="1279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1279">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44185,6 +44461,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE108:AK108">
+    <cfRule type="colorScale" priority="1287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1286">
       <colorScale>
         <cfvo type="min"/>
@@ -44195,29 +44481,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE109:AK109">
+    <cfRule type="colorScale" priority="1289">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1289">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44273,17 +44549,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE112:AK112">
+    <cfRule type="colorScale" priority="1295">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1295">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44317,17 +44593,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE114:AK114">
+    <cfRule type="colorScale" priority="1299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44361,6 +44637,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE116:AK116">
+    <cfRule type="colorScale" priority="1303">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1302">
       <colorScale>
         <cfvo type="min"/>
@@ -44371,29 +44657,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1303">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE117:AK117">
+    <cfRule type="colorScale" priority="1305">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1304">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44427,17 +44703,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE119:AK119">
+    <cfRule type="colorScale" priority="1309">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1308">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1309">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44515,6 +44791,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE123:AK123">
+    <cfRule type="colorScale" priority="1317">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1316">
       <colorScale>
         <cfvo type="min"/>
@@ -44525,29 +44811,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1317">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE124:AK124">
+    <cfRule type="colorScale" priority="1319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1318">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1319">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44691,17 +44967,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE131:AK131">
+    <cfRule type="colorScale" priority="1333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1333">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44735,17 +45011,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE133:AK133">
+    <cfRule type="colorScale" priority="1337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1337">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44889,17 +45165,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE140:AK140">
+    <cfRule type="colorScale" priority="1351">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1350">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1351">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44999,6 +45275,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE145:AK145">
+    <cfRule type="colorScale" priority="1361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1360">
       <colorScale>
         <cfvo type="min"/>
@@ -45009,29 +45295,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1361">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE146:AK146">
+    <cfRule type="colorScale" priority="1363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1362">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1363">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45153,17 +45429,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE152:AK152">
+    <cfRule type="colorScale" priority="1375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1374">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1375">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45219,6 +45495,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE155:AK155">
+    <cfRule type="colorScale" priority="1381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1380">
       <colorScale>
         <cfvo type="min"/>
@@ -45229,18 +45515,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE156:AK156">
+    <cfRule type="colorScale" priority="1383">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1382">
       <colorScale>
         <cfvo type="min"/>
@@ -45251,18 +45537,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1383">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE157:AK157">
+    <cfRule type="colorScale" priority="1385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1384">
       <colorScale>
         <cfvo type="min"/>
@@ -45273,18 +45559,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1385">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE158:AK158">
+    <cfRule type="colorScale" priority="1387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1386">
       <colorScale>
         <cfvo type="min"/>
@@ -45295,18 +45581,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1387">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE159:AK159">
+    <cfRule type="colorScale" priority="1389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1388">
       <colorScale>
         <cfvo type="min"/>
@@ -45317,29 +45603,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE160:AK160">
+    <cfRule type="colorScale" priority="1391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1391">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45373,6 +45649,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE162:AK162">
+    <cfRule type="colorScale" priority="1395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1394">
       <colorScale>
         <cfvo type="min"/>
@@ -45383,18 +45669,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1395">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE163:AK163">
+    <cfRule type="colorScale" priority="1397">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1396">
       <colorScale>
         <cfvo type="min"/>
@@ -45405,29 +45691,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1397">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE164:AK164">
+    <cfRule type="colorScale" priority="1399">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1398">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1399">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45593,6 +45869,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE172:AK172">
+    <cfRule type="colorScale" priority="1415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1414">
       <colorScale>
         <cfvo type="min"/>
@@ -45603,18 +45889,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE173:AK173">
+    <cfRule type="colorScale" priority="1417">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1416">
       <colorScale>
         <cfvo type="min"/>
@@ -45625,29 +45911,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1417">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE174:AK174">
+    <cfRule type="colorScale" priority="1419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1418">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1419">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45681,6 +45957,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE176:AK176">
+    <cfRule type="colorScale" priority="1423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1422">
       <colorScale>
         <cfvo type="min"/>
@@ -45691,18 +45977,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1423">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE177:AK177">
+    <cfRule type="colorScale" priority="1425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1424">
       <colorScale>
         <cfvo type="min"/>
@@ -45713,18 +45999,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1425">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE178:AK178">
+    <cfRule type="colorScale" priority="1427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1426">
       <colorScale>
         <cfvo type="min"/>
@@ -45735,18 +46021,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE179:AK179">
+    <cfRule type="colorScale" priority="1429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1428">
       <colorScale>
         <cfvo type="min"/>
@@ -45757,18 +46043,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1429">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE180:AK180">
+    <cfRule type="colorScale" priority="1431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1430">
       <colorScale>
         <cfvo type="min"/>
@@ -45779,18 +46065,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1431">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE181:AK181">
+    <cfRule type="colorScale" priority="1433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1432">
       <colorScale>
         <cfvo type="min"/>
@@ -45801,18 +46087,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE182:AK182">
+    <cfRule type="colorScale" priority="1435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1434">
       <colorScale>
         <cfvo type="min"/>
@@ -45823,29 +46109,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1435">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE183:AK183">
+    <cfRule type="colorScale" priority="1437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1436">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1437">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45901,17 +46177,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE186:AK186">
+    <cfRule type="colorScale" priority="1443">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1442">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1443">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -45967,17 +46243,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE189:AK189">
+    <cfRule type="colorScale" priority="1449">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1448">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1449">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46011,17 +46287,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE191:AK191">
+    <cfRule type="colorScale" priority="1453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1452">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1453">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46099,17 +46375,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE195:AK195">
+    <cfRule type="colorScale" priority="1461">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1460">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1461">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46187,17 +46463,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE199:AK199">
+    <cfRule type="colorScale" priority="1469">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1468">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1469">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46231,17 +46507,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE201:AK201">
+    <cfRule type="colorScale" priority="1473">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1472">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1473">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46451,17 +46727,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE211:AK211">
+    <cfRule type="colorScale" priority="1497">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1496">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1497">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46495,17 +46771,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE213:AK213">
+    <cfRule type="colorScale" priority="1501">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1500">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1501">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46539,17 +46815,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE217:AK217">
+    <cfRule type="colorScale" priority="1505">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1504">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1505">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46605,6 +46881,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22:AF23">
+    <cfRule type="colorScale" priority="1071">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1070">
       <colorScale>
         <cfvo type="min"/>
@@ -46615,18 +46901,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1071">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF222:AF226">
+    <cfRule type="colorScale" priority="1073">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1072">
       <colorScale>
         <cfvo type="min"/>
@@ -46637,29 +46923,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1073">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF227:AF228">
+    <cfRule type="colorScale" priority="1075">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1074">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1075">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46715,17 +46991,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG227:AG228">
+    <cfRule type="colorScale" priority="1069">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1068">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1069">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46803,17 +47079,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AI23">
+    <cfRule type="colorScale" priority="1053">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1052">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1053">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46847,17 +47123,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI227:AI228">
+    <cfRule type="colorScale" priority="1057">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1056">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1057">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46891,6 +47167,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ222:AJ226">
+    <cfRule type="colorScale" priority="1049">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1048">
       <colorScale>
         <cfvo type="min"/>
@@ -46901,29 +47187,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1049">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ227:AJ228">
+    <cfRule type="colorScale" priority="1051">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1050">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1051">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46979,17 +47255,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK227:AK228">
+    <cfRule type="colorScale" priority="1045">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1044">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1045">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47023,17 +47299,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM221">
+    <cfRule type="colorScale" priority="559">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="558">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="559">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49377,6 +49653,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM108:AS108 AU108:AX108">
+    <cfRule type="colorScale" priority="4155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4154">
       <colorScale>
         <cfvo type="min"/>
@@ -49387,18 +49673,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM109:AS109 AU109:AX109">
+    <cfRule type="colorScale" priority="4159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4158">
       <colorScale>
         <cfvo type="min"/>
@@ -49409,18 +49695,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM110:AS110 AU110:AX110">
+    <cfRule type="colorScale" priority="4163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4162">
       <colorScale>
         <cfvo type="min"/>
@@ -49431,18 +49717,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM111:AS111 AU111:AX111">
+    <cfRule type="colorScale" priority="4167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4166">
       <colorScale>
         <cfvo type="min"/>
@@ -49453,18 +49739,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM112:AS112 AU112:AX112">
+    <cfRule type="colorScale" priority="4171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4170">
       <colorScale>
         <cfvo type="min"/>
@@ -49475,18 +49761,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM113:AS113 AU113:AX113">
+    <cfRule type="colorScale" priority="4175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4174">
       <colorScale>
         <cfvo type="min"/>
@@ -49497,18 +49783,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM114:AS114 AU114:AX114">
+    <cfRule type="colorScale" priority="4179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4178">
       <colorScale>
         <cfvo type="min"/>
@@ -49519,29 +49805,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM115:AS115 AU115:AX115">
+    <cfRule type="colorScale" priority="4183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49575,17 +49851,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM117:AS117 AU117:AX117">
+    <cfRule type="colorScale" priority="4191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49619,17 +49895,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM119:AS119 AU119:AX119">
+    <cfRule type="colorScale" priority="4199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49663,17 +49939,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM121:AS121 AU121:AX121">
+    <cfRule type="colorScale" priority="4207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4207">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49751,17 +50027,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM125:AS125 AU125:AX125">
+    <cfRule type="colorScale" priority="4223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49839,17 +50115,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM129:AS129 AU129:AX129">
+    <cfRule type="colorScale" priority="4239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4238">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4239">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -49971,6 +50247,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM135:AS135 AU135:AX135">
+    <cfRule type="colorScale" priority="4263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4262">
       <colorScale>
         <cfvo type="min"/>
@@ -49981,18 +50267,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4263">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM136:AS136 AU136:AX136">
+    <cfRule type="colorScale" priority="4267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4266">
       <colorScale>
         <cfvo type="min"/>
@@ -50003,18 +50289,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM137:AS137 AU137:AX137">
+    <cfRule type="colorScale" priority="4271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4270">
       <colorScale>
         <cfvo type="min"/>
@@ -50025,18 +50311,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM138:AS138 AU138:AX138">
+    <cfRule type="colorScale" priority="4275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4274">
       <colorScale>
         <cfvo type="min"/>
@@ -50047,29 +50333,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM139:AS139 AU139:AX139">
+    <cfRule type="colorScale" priority="4279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4279">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50125,17 +50401,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM142:AS142 AU142:AX142">
+    <cfRule type="colorScale" priority="4291">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4290">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4291">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50169,17 +50445,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM144:AS144 AU144:AX144">
+    <cfRule type="colorScale" priority="4299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4299">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50213,6 +50489,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM146:AS146 AU146:AX146">
+    <cfRule type="colorScale" priority="4307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4306">
       <colorScale>
         <cfvo type="min"/>
@@ -50223,18 +50509,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM147:AS147 AU147:AX147">
+    <cfRule type="colorScale" priority="4311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4310">
       <colorScale>
         <cfvo type="min"/>
@@ -50245,29 +50531,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4311">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM148:AS148 AU148:AX148">
+    <cfRule type="colorScale" priority="4315">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4314">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4315">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50411,17 +50687,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM155:AS155 AU155:AX155">
+    <cfRule type="colorScale" priority="4343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4343">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50543,6 +50819,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM161:AS161 AU161:AX161">
+    <cfRule type="colorScale" priority="4367">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4366">
       <colorScale>
         <cfvo type="min"/>
@@ -50553,18 +50839,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4367">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM162:AS162 AU162:AX162">
+    <cfRule type="colorScale" priority="4371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4370">
       <colorScale>
         <cfvo type="min"/>
@@ -50575,29 +50861,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM163:AS163 AU163:AX163">
+    <cfRule type="colorScale" priority="4375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4374">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4375">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50653,6 +50929,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM166:AS166 AU166:AX166">
+    <cfRule type="colorScale" priority="4387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4386">
       <colorScale>
         <cfvo type="min"/>
@@ -50663,29 +50949,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4387">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM167:AS167 AU167:AX167">
+    <cfRule type="colorScale" priority="4391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4391">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50741,17 +51017,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM170:AS170 AU170:AX170">
+    <cfRule type="colorScale" priority="4403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4402">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4403">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50851,6 +51127,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM175:AS175 AU175:AX175">
+    <cfRule type="colorScale" priority="4423">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4422">
       <colorScale>
         <cfvo type="min"/>
@@ -50861,18 +51147,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4423">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM176:AS176 AU176:AX176">
+    <cfRule type="colorScale" priority="4427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4426">
       <colorScale>
         <cfvo type="min"/>
@@ -50883,29 +51169,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM177:AS177 AU177:AX177">
+    <cfRule type="colorScale" priority="4431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4430">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4431">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51115,17 +51391,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM187:AS187 AU187:AX187">
+    <cfRule type="colorScale" priority="4471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4470">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4471">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51225,17 +51501,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM192:AS192 AU192:AX192">
+    <cfRule type="colorScale" priority="4491">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4490">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4491">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51269,17 +51545,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM194:AS194 AU194:AX194">
+    <cfRule type="colorScale" priority="4499">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4498">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4499">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51533,6 +51809,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM206:AS206 AU206:AX206">
+    <cfRule type="colorScale" priority="4547">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4546">
       <colorScale>
         <cfvo type="min"/>
@@ -51543,51 +51829,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4547">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU207:AX207">
-    <cfRule type="colorScale" priority="4550">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4551">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM207:AS207">
+    <cfRule type="colorScale" priority="4555">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4554">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4555">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51664,28 +51918,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU211:AX211">
-    <cfRule type="colorScale" priority="4570">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4571">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AM211:AS211">
     <cfRule type="colorScale" priority="4574">
       <colorScale>
@@ -51709,6 +51941,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM212:AS212 AU212:AX212">
+    <cfRule type="colorScale" priority="4579">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4578">
       <colorScale>
         <cfvo type="min"/>
@@ -51719,29 +51961,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4579">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM213:AS213 AU213:AX213">
+    <cfRule type="colorScale" priority="4583">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4582">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4583">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51775,6 +52007,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM217:AS217 AU217:AX217">
+    <cfRule type="colorScale" priority="4591">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4590">
       <colorScale>
         <cfvo type="min"/>
@@ -51785,51 +52027,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4591">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM218:AS220 AU218:AX220">
+    <cfRule type="colorScale" priority="4595">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4594">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4595">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU221:AX221">
-    <cfRule type="colorScale" priority="4602">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4603">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51863,6 +52073,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22:AN23">
+    <cfRule type="colorScale" priority="591">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="590">
       <colorScale>
         <cfvo type="min"/>
@@ -51873,29 +52093,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="591">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN221">
+    <cfRule type="colorScale" priority="557">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="556">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="557">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51929,17 +52139,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN227:AN228">
+    <cfRule type="colorScale" priority="595">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="594">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="595">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52061,17 +52271,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP221">
+    <cfRule type="colorScale" priority="553">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="552">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="553">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52105,6 +52315,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP227:AP228">
+    <cfRule type="colorScale" priority="583">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="582">
       <colorScale>
         <cfvo type="min"/>
@@ -52115,18 +52335,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="583">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23">
+    <cfRule type="colorScale" priority="573">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="572">
       <colorScale>
         <cfvo type="min"/>
@@ -52137,18 +52357,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="573">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ221">
+    <cfRule type="colorScale" priority="551">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="550">
       <colorScale>
         <cfvo type="min"/>
@@ -52159,18 +52379,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="551">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ222:AQ226">
+    <cfRule type="colorScale" priority="575">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="574">
       <colorScale>
         <cfvo type="min"/>
@@ -52181,29 +52401,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="575">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ227:AQ228">
+    <cfRule type="colorScale" priority="577">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="576">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="577">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52237,6 +52447,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR221">
+    <cfRule type="colorScale" priority="549">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="548">
       <colorScale>
         <cfvo type="min"/>
@@ -52247,18 +52467,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="549">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR222:AR226">
+    <cfRule type="colorScale" priority="569">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="568">
       <colorScale>
         <cfvo type="min"/>
@@ -52269,18 +52489,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="569">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR227:AR228">
+    <cfRule type="colorScale" priority="571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="570">
       <colorScale>
         <cfvo type="min"/>
@@ -52291,18 +52511,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="571">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22:AS23">
+    <cfRule type="colorScale" priority="561">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="560">
       <colorScale>
         <cfvo type="min"/>
@@ -52313,18 +52533,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="561">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS222:AS226">
+    <cfRule type="colorScale" priority="563">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="562">
       <colorScale>
         <cfvo type="min"/>
@@ -52335,29 +52555,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="563">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS227:AS228">
+    <cfRule type="colorScale" priority="565">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="564">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="565">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52390,7 +52600,83 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AU207:AX207">
+    <cfRule type="colorScale" priority="4551">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4550">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU211:AX211">
+    <cfRule type="colorScale" priority="4571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4570">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU221:AX221">
+    <cfRule type="colorScale" priority="4603">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4602">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AU222:AX226">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -52401,29 +52687,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU227:AX228">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52479,6 +52755,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -52489,18 +52775,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -52511,29 +52797,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ6">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52633,17 +52909,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ11">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52699,6 +52975,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ14">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -52709,18 +52995,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ15">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -52731,29 +53017,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52809,6 +53085,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -52819,18 +53105,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -52841,18 +53127,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ21">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -52863,29 +53149,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ22:AZ23">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52919,6 +53195,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ25">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -52929,18 +53215,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ26">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -52951,18 +53237,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ27">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -52973,29 +53259,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ28">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53403,17 +53679,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ47">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53579,6 +53855,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ55">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
@@ -53589,18 +53875,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ56">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -53611,29 +53897,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ57">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53667,6 +53943,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ59">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -53677,18 +53963,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ60">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -53699,29 +53985,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ61">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53799,6 +54075,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ65">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -53809,29 +54095,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ66">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53931,17 +54207,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ71">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="208">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54063,6 +54339,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ77">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -54073,29 +54359,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ78">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54173,17 +54449,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ82">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54217,6 +54493,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ84">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -54227,29 +54513,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ85">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54283,6 +54559,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ87">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -54293,18 +54579,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="241">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ88">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -54315,18 +54601,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ89">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -54337,18 +54623,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ90">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -54359,18 +54645,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ91">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -54381,18 +54667,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="249">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ92">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -54403,29 +54689,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="251">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ93">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="252">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54459,6 +54735,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ95">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -54469,18 +54755,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="257">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ96">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
@@ -54491,18 +54777,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="259">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ97">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
@@ -54513,18 +54799,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="261">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ98">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
@@ -54535,18 +54821,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="263">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ99">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
@@ -54557,18 +54843,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="265">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ100">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -54579,18 +54865,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ101">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -54601,18 +54887,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ102">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -54623,18 +54909,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ103">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
@@ -54645,18 +54931,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ104">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -54667,29 +54953,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ105">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54723,17 +54999,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ107">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="280">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -54899,6 +55175,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ115">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -54909,18 +55195,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="297">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ116">
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -54931,29 +55217,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="299">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ117">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="300">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55053,17 +55329,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ122">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="310">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55119,17 +55395,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ125">
+    <cfRule type="colorScale" priority="317">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="316">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55163,6 +55439,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ127">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
@@ -55173,18 +55459,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="321">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ128">
+    <cfRule type="colorScale" priority="323">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="min"/>
@@ -55195,18 +55481,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="323">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ129">
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -55217,29 +55503,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="325">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ130">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="326">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55339,6 +55615,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ135">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
@@ -55349,29 +55635,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="337">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ136">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="338">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="339">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55449,6 +55725,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ140">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
@@ -55459,18 +55745,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="347">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ141">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
@@ -55481,18 +55767,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="349">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ142">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="min"/>
@@ -55503,29 +55789,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="351">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ143">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="353">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55669,6 +55945,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ150">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="366">
       <colorScale>
         <cfvo type="min"/>
@@ -55679,29 +55965,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="367">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ151">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="368">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="369">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55867,17 +56143,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ159">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="385">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56241,6 +56517,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ176">
+    <cfRule type="colorScale" priority="419">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="418">
       <colorScale>
         <cfvo type="min"/>
@@ -56251,29 +56537,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="419">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ177">
+    <cfRule type="colorScale" priority="421">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="420">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="421">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56395,17 +56671,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ183">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="432">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="433">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56439,17 +56715,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ185">
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="436">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="437">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56593,17 +56869,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ192">
+    <cfRule type="colorScale" priority="451">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="450">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="451">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56659,17 +56935,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ195">
+    <cfRule type="colorScale" priority="457">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="456">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="457">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56703,17 +56979,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ197">
+    <cfRule type="colorScale" priority="461">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="460">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="461">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56747,6 +57023,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ199">
+    <cfRule type="colorScale" priority="465">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="464">
       <colorScale>
         <cfvo type="min"/>
@@ -56757,18 +57043,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="465">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ200">
+    <cfRule type="colorScale" priority="467">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="466">
       <colorScale>
         <cfvo type="min"/>
@@ -56779,29 +57065,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="467">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ201">
+    <cfRule type="colorScale" priority="469">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="468">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="469">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -56901,17 +57177,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ206">
+    <cfRule type="colorScale" priority="479">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="478">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="479">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57033,17 +57309,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ212">
+    <cfRule type="colorScale" priority="495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="494">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="495">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -57250,260 +57526,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC227:BC228 AA227:AD228 G227:P228 V227:X228 R227:T228">
-    <cfRule type="colorScale" priority="3298">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3299">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R133:T133">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R205:T205">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R206:T206">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R226:T226">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R214:T214">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R213:T213">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R215:T216">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R217:T217">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R218:T218">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R219:T219">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R220:T220">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BC222:BC226 AA222:AD226 G222:P226 V222:X226 R222:T225">
     <cfRule type="colorScale" priority="4612">
       <colorScale>
@@ -57526,40 +57548,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R126:T126">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R229:T229">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="BC227:BC228 AA227:AD228 G227:P228 V227:X228 R227:T228">
+    <cfRule type="colorScale" priority="3299">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3298">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
